--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>108.9228523717313</v>
+        <v>254.0079412893949</v>
       </c>
       <c r="R2">
-        <v>980.305671345582</v>
+        <v>2286.071471604554</v>
       </c>
       <c r="S2">
-        <v>0.01150111397927924</v>
+        <v>0.01437665257551075</v>
       </c>
       <c r="T2">
-        <v>0.01150111397927924</v>
+        <v>0.01437665257551074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>66.34153559246022</v>
+        <v>58.17847791785356</v>
       </c>
       <c r="R3">
-        <v>597.073820332142</v>
+        <v>523.606301260682</v>
       </c>
       <c r="S3">
-        <v>0.007004972288141407</v>
+        <v>0.003292856751451202</v>
       </c>
       <c r="T3">
-        <v>0.007004972288141409</v>
+        <v>0.0032928567514512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>25.37698735416511</v>
+        <v>29.07365086327022</v>
       </c>
       <c r="R4">
-        <v>228.392886187486</v>
+        <v>261.662857769432</v>
       </c>
       <c r="S4">
-        <v>0.002679544445043638</v>
+        <v>0.001645546101594995</v>
       </c>
       <c r="T4">
-        <v>0.002679544445043638</v>
+        <v>0.001645546101594994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>0.7551467569428889</v>
+        <v>3.219808420223556</v>
       </c>
       <c r="R5">
-        <v>6.796320812486</v>
+        <v>28.978275782012</v>
       </c>
       <c r="S5">
-        <v>7.973559940427396E-05</v>
+        <v>0.0001822386606587202</v>
       </c>
       <c r="T5">
-        <v>7.973559940427399E-05</v>
+        <v>0.0001822386606587202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>4515.015897896507</v>
+        <v>12006.34276201199</v>
       </c>
       <c r="R6">
-        <v>40635.14308106856</v>
+        <v>108057.0848581079</v>
       </c>
       <c r="S6">
-        <v>0.4767384559738385</v>
+        <v>0.6795496932723306</v>
       </c>
       <c r="T6">
-        <v>0.4767384559738385</v>
+        <v>0.6795496932723305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>2749.956334861484</v>
@@ -883,10 +883,10 @@
         <v>24749.60701375336</v>
       </c>
       <c r="S7">
-        <v>0.2903666269897574</v>
+        <v>0.1556453968464138</v>
       </c>
       <c r="T7">
-        <v>0.2903666269897575</v>
+        <v>0.1556453968464137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>1051.914257200542</v>
+        <v>1374.241355744818</v>
       </c>
       <c r="R8">
-        <v>9467.228314804881</v>
+        <v>12368.17220170336</v>
       </c>
       <c r="S8">
-        <v>0.1110711435209544</v>
+        <v>0.07778099545294408</v>
       </c>
       <c r="T8">
-        <v>0.1110711435209544</v>
+        <v>0.07778099545294406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>31.30196775609778</v>
+        <v>152.1925784090844</v>
       </c>
       <c r="R9">
-        <v>281.71770980488</v>
+        <v>1369.73320568176</v>
       </c>
       <c r="S9">
-        <v>0.003305160405733524</v>
+        <v>0.008613981961555061</v>
       </c>
       <c r="T9">
-        <v>0.003305160405733525</v>
+        <v>0.008613981961555061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>228.2852975929674</v>
+        <v>665.541762235851</v>
       </c>
       <c r="R10">
-        <v>2054.567678336706</v>
+        <v>5989.875860122659</v>
       </c>
       <c r="S10">
-        <v>0.02410453977508766</v>
+        <v>0.03766914782895212</v>
       </c>
       <c r="T10">
-        <v>0.02410453977508766</v>
+        <v>0.03766914782895212</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
-        <v>139.0415038325762</v>
+        <v>152.436992800683</v>
       </c>
       <c r="R11">
-        <v>1251.373534493186</v>
+        <v>1371.932935206147</v>
       </c>
       <c r="S11">
-        <v>0.01468132856061592</v>
+        <v>0.008627815626654784</v>
       </c>
       <c r="T11">
-        <v>0.01468132856061592</v>
+        <v>0.008627815626654781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>53.18620458439312</v>
+        <v>76.17765307630799</v>
       </c>
       <c r="R12">
-        <v>478.6758412595381</v>
+        <v>685.598877686772</v>
       </c>
       <c r="S12">
-        <v>0.005615906926149537</v>
+        <v>0.004311596112847958</v>
       </c>
       <c r="T12">
-        <v>0.005615906926149537</v>
+        <v>0.004311596112847958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>1.582669737170889</v>
+        <v>8.436417220578001</v>
       </c>
       <c r="R13">
-        <v>14.244027634538</v>
+        <v>75.92775498520201</v>
       </c>
       <c r="S13">
-        <v>0.0001671133709998434</v>
+        <v>0.000477494674956329</v>
       </c>
       <c r="T13">
-        <v>0.0001671133709998435</v>
+        <v>0.000477494674956329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>269.8533607437723</v>
+        <v>101.9636116756401</v>
       </c>
       <c r="R14">
-        <v>2428.680246693951</v>
+        <v>917.6725050807611</v>
       </c>
       <c r="S14">
-        <v>0.02849369248074486</v>
+        <v>0.005771061380852077</v>
       </c>
       <c r="T14">
-        <v>0.02849369248074487</v>
+        <v>0.005771061380852077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>164.3593235644479</v>
+        <v>23.35394594430144</v>
       </c>
       <c r="R15">
-        <v>1479.233912080031</v>
+        <v>210.185513498713</v>
       </c>
       <c r="S15">
-        <v>0.01735462552358336</v>
+        <v>0.001321815236973058</v>
       </c>
       <c r="T15">
-        <v>0.01735462552358337</v>
+        <v>0.001321815236973057</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>62.87078582649144</v>
+        <v>11.67071561450978</v>
       </c>
       <c r="R16">
-        <v>565.837072438423</v>
+        <v>105.036440530588</v>
       </c>
       <c r="S16">
-        <v>0.006638497413651952</v>
+        <v>0.0006605534568946198</v>
       </c>
       <c r="T16">
-        <v>0.006638497413651954</v>
+        <v>0.0006605534568946197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>1.870855250102555</v>
+        <v>1.292492249506445</v>
       </c>
       <c r="R17">
-        <v>16.837697250923</v>
+        <v>11.632430245558</v>
       </c>
       <c r="S17">
-        <v>0.0001975427470144615</v>
+        <v>7.315405940999336E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001975427470144615</v>
+        <v>7.315405940999336E-05</v>
       </c>
     </row>
   </sheetData>
